--- a/docs/timer/定时器整理 (架构组)v0.1.xlsx
+++ b/docs/timer/定时器整理 (架构组)v0.1.xlsx
@@ -3,26 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlesfeng\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28050" windowHeight="13365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$45</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="277">
   <si>
     <t>定时器大类</t>
   </si>
@@ -756,9 +752,6 @@
     <t>WeixinBillAutoDownloadTask</t>
   </si>
   <si>
-    <t>com.mogoroom.tasktracker.task.WeixinBillAutoDownloadTask</t>
-  </si>
-  <si>
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.WeixinBillAutoDownloadTask"}</t>
   </si>
   <si>
@@ -945,6 +938,68 @@
   </si>
   <si>
     <t>每5分钟执行一次</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>WithdrawUpdateStatus</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>每两分钟定时更新提现计划</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现任务发起以后，每两分钟定时更新提现计划</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>WithdrawUpdateStatusTask.java</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.WeixinBillAutoDownloadTask</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>WithdrawUpdateStatusTask</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.WithdrawUpdateStatusTask</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"taskImpl":"com.mogoroom.tasktracker.task.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WithdrawUpdateStatusTask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时周期任务</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔两分钟执行一次</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1405,7 +1460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1680,6 +1735,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1707,23 +1783,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2002,16 +2081,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L19" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="36.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="4" customWidth="1"/>
@@ -2080,10 +2159,10 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="103" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -2114,8 +2193,8 @@
       <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="93"/>
-      <c r="B3" s="97"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="10" t="s">
         <v>24</v>
       </c>
@@ -2144,8 +2223,8 @@
       <c r="P3" s="40"/>
     </row>
     <row r="4" spans="1:16" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="93"/>
-      <c r="B4" s="97" t="s">
+      <c r="A4" s="100"/>
+      <c r="B4" s="104" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -2184,8 +2263,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="93"/>
-      <c r="B5" s="97"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="10" t="s">
         <v>36</v>
       </c>
@@ -2222,8 +2301,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="93"/>
-      <c r="B6" s="97" t="s">
+      <c r="A6" s="100"/>
+      <c r="B6" s="104" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -2262,8 +2341,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="93"/>
-      <c r="B7" s="97"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="12" t="s">
         <v>52</v>
       </c>
@@ -2298,8 +2377,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="93"/>
-      <c r="B8" s="97"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="13" t="s">
         <v>57</v>
       </c>
@@ -2328,8 +2407,8 @@
       <c r="P8" s="42"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="93"/>
-      <c r="B9" s="97"/>
+      <c r="A9" s="100"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="13" t="s">
         <v>61</v>
       </c>
@@ -2358,8 +2437,8 @@
       <c r="P9" s="42"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="93"/>
-      <c r="B10" s="97"/>
+      <c r="A10" s="100"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="10" t="s">
         <v>63</v>
       </c>
@@ -2398,8 +2477,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="93"/>
-      <c r="B11" s="97"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="15" t="s">
         <v>69</v>
       </c>
@@ -2438,8 +2517,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="93"/>
-      <c r="B12" s="97"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="10" t="s">
         <v>78</v>
       </c>
@@ -2476,8 +2555,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="93"/>
-      <c r="B13" s="97"/>
+      <c r="A13" s="100"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="10" t="s">
         <v>85</v>
       </c>
@@ -2514,8 +2593,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="93"/>
-      <c r="B14" s="97"/>
+      <c r="A14" s="100"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="10" t="s">
         <v>91</v>
       </c>
@@ -2552,8 +2631,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="33" x14ac:dyDescent="0.15">
-      <c r="A15" s="93"/>
-      <c r="B15" s="97" t="s">
+      <c r="A15" s="100"/>
+      <c r="B15" s="104" t="s">
         <v>98</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -2598,8 +2677,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="93"/>
-      <c r="B16" s="97"/>
+      <c r="A16" s="100"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="12" t="s">
         <v>110</v>
       </c>
@@ -2642,8 +2721,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="93"/>
-      <c r="B17" s="97"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="17" t="s">
         <v>117</v>
       </c>
@@ -2686,8 +2765,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="93"/>
-      <c r="B18" s="97"/>
+      <c r="A18" s="100"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="12" t="s">
         <v>124</v>
       </c>
@@ -2730,8 +2809,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="93"/>
-      <c r="B19" s="97"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="12" t="s">
         <v>131</v>
       </c>
@@ -2774,8 +2853,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="33" x14ac:dyDescent="0.15">
-      <c r="A20" s="93"/>
-      <c r="B20" s="97"/>
+      <c r="A20" s="100"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="12" t="s">
         <v>137</v>
       </c>
@@ -2818,8 +2897,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="93"/>
-      <c r="B21" s="97"/>
+      <c r="A21" s="100"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="12" t="s">
         <v>143</v>
       </c>
@@ -2862,8 +2941,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="93"/>
-      <c r="B22" s="97" t="s">
+      <c r="A22" s="100"/>
+      <c r="B22" s="104" t="s">
         <v>150</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -2892,8 +2971,8 @@
       <c r="P22" s="42"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="93"/>
-      <c r="B23" s="97"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="13" t="s">
         <v>154</v>
       </c>
@@ -2920,7 +2999,7 @@
       <c r="P23" s="42"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="93"/>
+      <c r="A24" s="100"/>
       <c r="B24" s="19" t="s">
         <v>155</v>
       </c>
@@ -2960,7 +3039,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="93"/>
+      <c r="A25" s="100"/>
       <c r="B25" s="9" t="s">
         <v>163</v>
       </c>
@@ -3002,7 +3081,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="93"/>
+      <c r="A26" s="100"/>
       <c r="B26" s="9" t="s">
         <v>171</v>
       </c>
@@ -3044,7 +3123,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="93"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="9" t="s">
         <v>178</v>
       </c>
@@ -3086,7 +3165,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="93"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="9" t="s">
         <v>185</v>
       </c>
@@ -3124,7 +3203,7 @@
       <c r="P28" s="40"/>
     </row>
     <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="93"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="20" t="s">
         <v>191</v>
       </c>
@@ -3170,7 +3249,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="94"/>
+      <c r="A30" s="101"/>
       <c r="B30" s="22" t="s">
         <v>200</v>
       </c>
@@ -3201,10 +3280,10 @@
         <v>200</v>
       </c>
       <c r="M30" s="84" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N30" s="91" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O30" s="85" t="s">
         <v>108</v>
@@ -3214,7 +3293,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="94"/>
+      <c r="A31" s="101"/>
       <c r="B31" s="24" t="s">
         <v>207</v>
       </c>
@@ -3248,51 +3327,51 @@
       <c r="P31" s="89"/>
     </row>
     <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="94"/>
-      <c r="B32" s="101" t="s">
+      <c r="A32" s="101"/>
+      <c r="B32" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="D32" s="93" t="s">
         <v>258</v>
-      </c>
-      <c r="C32" s="101" t="s">
-        <v>258</v>
-      </c>
-      <c r="D32" s="101" t="s">
-        <v>259</v>
       </c>
       <c r="E32" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="F32" s="102"/>
+      <c r="F32" s="94"/>
       <c r="G32" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="102"/>
-      <c r="I32" s="103" t="s">
+      <c r="H32" s="94"/>
+      <c r="I32" s="95" t="s">
+        <v>259</v>
+      </c>
+      <c r="J32" s="95" t="s">
         <v>260</v>
       </c>
-      <c r="J32" s="103" t="s">
+      <c r="K32" s="96" t="s">
         <v>261</v>
       </c>
-      <c r="K32" s="104" t="s">
-        <v>262</v>
-      </c>
-      <c r="L32" s="101" t="s">
-        <v>258</v>
-      </c>
-      <c r="M32" s="101" t="s">
+      <c r="L32" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="M32" s="93" t="s">
+        <v>263</v>
+      </c>
+      <c r="N32" s="91" t="s">
         <v>264</v>
       </c>
-      <c r="N32" s="91" t="s">
+      <c r="O32" s="98" t="s">
         <v>265</v>
       </c>
-      <c r="O32" s="106" t="s">
+      <c r="P32" s="97" t="s">
         <v>266</v>
       </c>
-      <c r="P32" s="105" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="95"/>
+    </row>
+    <row r="33" spans="1:16" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="102"/>
       <c r="B33" s="26" t="s">
         <v>211</v>
       </c>
@@ -3323,152 +3402,164 @@
         <v>214</v>
       </c>
       <c r="M33" s="84" t="s">
+        <v>271</v>
+      </c>
+      <c r="N33" s="77" t="s">
         <v>215</v>
-      </c>
-      <c r="N33" s="77" t="s">
-        <v>216</v>
       </c>
       <c r="O33" s="85" t="s">
         <v>108</v>
       </c>
       <c r="P33" s="90" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="92"/>
+      <c r="B34" s="108" t="s">
+        <v>267</v>
+      </c>
+      <c r="C34" s="109" t="s">
+        <v>270</v>
+      </c>
+      <c r="D34" s="109" t="s">
+        <v>268</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="F34" s="110"/>
+      <c r="G34" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="110"/>
+      <c r="I34" s="95" t="s">
+        <v>259</v>
+      </c>
+      <c r="J34" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="K34" s="109" t="s">
+        <v>269</v>
+      </c>
+      <c r="L34" s="111" t="s">
+        <v>272</v>
+      </c>
+      <c r="M34" s="112" t="s">
+        <v>273</v>
+      </c>
+      <c r="N34" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="O34" s="113" t="s">
+        <v>275</v>
+      </c>
+      <c r="P34" s="114" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="2" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="28" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="27" x14ac:dyDescent="0.15">
-      <c r="A34" s="28" t="s">
+      <c r="B35" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="C35" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="D35" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="E35" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" s="30"/>
+      <c r="G35" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="30"/>
+      <c r="I35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="E34" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="30" t="s">
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="52"/>
+    </row>
+    <row r="36" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="103" t="s">
         <v>222</v>
       </c>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="52"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="96" t="s">
+      <c r="B36" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C36" s="31"/>
+      <c r="D36" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32" t="s">
+      <c r="E36" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="31"/>
+      <c r="G36" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="53"/>
+    </row>
+    <row r="37" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="104"/>
+      <c r="B37" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E35" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="31"/>
-      <c r="G35" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31" t="s">
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="53"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="97"/>
-      <c r="B36" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="42" t="s">
+      <c r="J37" s="13"/>
+      <c r="K37" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13" t="s">
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="42"/>
+    </row>
+    <row r="38" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="104"/>
+      <c r="B38" s="33" t="s">
         <v>228</v>
-      </c>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="42"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="97"/>
-      <c r="B37" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E37" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J37" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="40"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="97"/>
-      <c r="B38" s="33" t="s">
-        <v>232</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E38" s="43" t="s">
         <v>47</v>
@@ -3479,13 +3570,13 @@
       </c>
       <c r="H38" s="10"/>
       <c r="I38" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J38" s="72" t="s">
         <v>23</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
@@ -3493,49 +3584,53 @@
       <c r="O38" s="10"/>
       <c r="P38" s="40"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="97"/>
+    <row r="39" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="104"/>
       <c r="B39" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="J39" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="40"/>
+    </row>
+    <row r="40" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="104"/>
+      <c r="B40" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="E39" s="42" t="s">
+      <c r="E40" s="42" t="s">
         <v>47</v>
-      </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="42"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A40" s="97"/>
-      <c r="B40" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="42" t="s">
-        <v>237</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="42" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13" t="s">
@@ -3543,7 +3638,7 @@
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="13" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
@@ -3551,162 +3646,196 @@
       <c r="O40" s="13"/>
       <c r="P40" s="42"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A41" s="97"/>
+    <row r="41" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="104"/>
       <c r="B41" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="42"/>
+    </row>
+    <row r="42" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="104"/>
+      <c r="B42" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E41" s="43" t="s">
+      <c r="E42" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="40" t="s">
+      <c r="F42" s="10"/>
+      <c r="G42" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="54"/>
-      <c r="I41" s="72" t="s">
+      <c r="H42" s="54"/>
+      <c r="I42" s="72" t="s">
         <v>22</v>
-      </c>
-      <c r="J41" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="K41" s="73" t="s">
-        <v>241</v>
-      </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="40"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A42" s="98"/>
-      <c r="B42" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="E42" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35" t="s">
-        <v>231</v>
       </c>
       <c r="J42" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="K42" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="56"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A43" s="99" t="s">
+      <c r="K42" s="73" t="s">
+        <v>240</v>
+      </c>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="40"/>
+    </row>
+    <row r="43" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="105"/>
+      <c r="B43" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="E43" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="35"/>
+      <c r="G43" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="J43" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="56"/>
+    </row>
+    <row r="44" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="106" t="s">
+        <v>243</v>
+      </c>
+      <c r="B44" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="C44" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="D44" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="E44" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="E43" s="57" t="s">
+      <c r="F44" s="37"/>
+      <c r="G44" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" s="37"/>
+      <c r="I44" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="L44" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="57" t="s">
+      <c r="M44" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="N44" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="O44" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="P44" s="57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="107"/>
+      <c r="B45" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="E45" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="F45" s="38"/>
+      <c r="G45" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="H43" s="37"/>
-      <c r="I43" s="74" t="s">
+      <c r="H45" s="38"/>
+      <c r="I45" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37" t="s">
+      <c r="J45" s="38"/>
+      <c r="K45" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="L43" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="M43" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="N43" s="77" t="s">
-        <v>251</v>
-      </c>
-      <c r="O43" s="37" t="s">
+      <c r="L45" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="M45" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="N45" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="O45" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="P43" s="57" t="s">
+      <c r="P45" s="58" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A44" s="100"/>
-      <c r="B44" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="C44" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="E44" s="58" t="s">
-        <v>248</v>
-      </c>
-      <c r="F44" s="38"/>
-      <c r="G44" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="H44" s="38"/>
-      <c r="I44" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="L44" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="M44" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="N44" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="O44" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="P44" s="58" t="s">
-        <v>77</v>
-      </c>
+    <row r="47" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="3"/>
+      <c r="E47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="P47" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P44"/>
+  <autoFilter ref="A1:P45"/>
   <mergeCells count="8">
     <mergeCell ref="A2:A33"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A44:A45"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B14"/>
